--- a/biology/Médecine/Henri_Desoille/Henri_Desoille.xlsx
+++ b/biology/Médecine/Henri_Desoille/Henri_Desoille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Desoille, né Henri Marie Félix Émile Desoille le 11 décembre 1900 à Paris 8e[1] et mort en 1990[2], est un médecin, résistant, déporté, et réformateur de la médecine du travail.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Desoille, né Henri Marie Félix Émile Desoille le 11 décembre 1900 à Paris 8e et mort en 1990, est un médecin, résistant, déporté, et réformateur de la médecine du travail.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un général, élevé dans une famille bourgeoise et catholique, Henri Desoille soutient sa thèse de médecine en 1932 et s'intéresse immédiatement à la médecine du travail. Il est ainsi diplômé de la première session de l'institut d'hygiène industrielle et de médecine du travail, dirgée par le Professeur Maurice Devoir, en 1934.
 En 1937, il collabore à l'Institut d'étude et de prévention des maladies professionnelles créé par le Docteur Guy Hausser, et alors en grande partie subventionné par la CGT. Il y fait un double travail de consultation et de publicain des Archives des maladies professionnelles, revue dont il assure le secrétariat général.
@@ -553,7 +567,9 @@
           <t>Travaux et publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« L’assassinat systématique des prisonniers malades par les médecins nazis », La Presse médicale, mai-octobre 1945
 « En marge de la psychologie du bagne : le bagne nazi », Archives de médecine sociale, octobre 1946.
@@ -592,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Fargues ; Rôle du « Médecin Français » dans la genèse de la Médecine du Travail française, Thèse de médecine, Université Paris-Ouest, 2005.
 Dictionnaire biographique du mouvement ouvrier, notice de Jean-Paul Richez
